--- a/Collections/Евро/Belgium/#EURO#Belgium#Regular[1999-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Belgium/#EURO#Belgium#Regular[1999-present]#circulation_quality.xlsx
@@ -331,7 +331,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -347,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="152">
   <si>
     <t>-</t>
   </si>
@@ -798,6 +798,33 @@
   </si>
   <si>
     <t>Mint director symbol - Shield</t>
+  </si>
+  <si>
+    <t>eurocollection</t>
+  </si>
+  <si>
+    <t>High convenience single table of varieties with photos</t>
+  </si>
+  <si>
+    <t>High convenience set of tables table of actual coins with photos</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Obv: Large stars</t>
+  </si>
+  <si>
+    <t>Subtype_4</t>
+  </si>
+  <si>
+    <t>Obv: Normal stars</t>
+  </si>
+  <si>
+    <t>Rev: Rough map</t>
+  </si>
+  <si>
+    <t>Rev: Smooth map</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1020,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1054,6 +1081,9 @@
     <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,15 +1105,14 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="65">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1557,6 +1586,31 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1581,16 +1635,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="64"/>
+    <tableColumn id="2" name="Link" dataDxfId="63" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1859,13 +1913,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1880,16 +1934,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
@@ -1899,8 +1953,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1925,7 +1979,9 @@
       <c r="C3" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="E3" s="13" t="s">
         <v>29</v>
       </c>
@@ -1933,13 +1989,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G5" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>133</v>
@@ -1947,21 +2003,23 @@
       <c r="C4" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G4" si="1">IF(OR(AND(F4&gt;1,F4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>133</v>
@@ -1970,10 +2028,10 @@
         <v>138</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="3" t="str">
@@ -1983,7 +2041,7 @@
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>133</v>
@@ -1992,21 +2050,20 @@
         <v>138</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="str">
-        <f t="shared" ref="G6:G23" si="1">IF(OR(AND(F6&gt;1,F6&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I6" s="5"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>133</v>
@@ -2015,21 +2072,21 @@
         <v>138</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G7:G24" si="2">IF(OR(AND(F7&gt;1,F7&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>133</v>
@@ -2039,19 +2096,20 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>133</v>
@@ -2060,20 +2118,20 @@
         <v>138</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>133</v>
@@ -2082,20 +2140,20 @@
         <v>138</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>133</v>
@@ -2105,46 +2163,44 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>137</v>
@@ -2152,20 +2208,20 @@
       <c r="D13" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>133</v>
@@ -2174,22 +2230,22 @@
         <v>137</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>133</v>
@@ -2201,19 +2257,19 @@
         <v>140</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>133</v>
@@ -2225,19 +2281,19 @@
         <v>140</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>133</v>
@@ -2246,25 +2302,25 @@
         <v>137</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>137</v>
@@ -2272,20 +2328,20 @@
       <c r="D18" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>135</v>
@@ -2296,20 +2352,20 @@
       <c r="D19" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="E19" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G19" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>135</v>
@@ -2321,19 +2377,19 @@
         <v>141</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>135</v>
@@ -2342,22 +2398,22 @@
         <v>137</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>135</v>
@@ -2368,20 +2424,20 @@
       <c r="D22" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>135</v>
@@ -2393,13 +2449,37 @@
         <v>142</v>
       </c>
       <c r="E23" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2409,13 +2489,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F22:F23">
-    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F23">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="F23:F24">
+    <cfRule type="containsText" dxfId="61" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F24">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2426,12 +2506,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F5 F7:F8 F10:F11 F19:F21 F13:F17">
-    <cfRule type="containsText" dxfId="60" priority="13" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3 F6 F8:F9 F11:F12 F20:F22 F14:F18">
+    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5 F3 F7:F8 F10:F11 F19:F21 F13:F17">
+  <conditionalFormatting sqref="F3 F6 F8:F9 F11:F12 F20:F22 F14:F18">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2443,12 +2540,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="59" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="58" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2460,12 +2557,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="F10">
+    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2477,12 +2574,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="57" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
+  <conditionalFormatting sqref="F13">
+    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2494,12 +2591,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2511,13 +2608,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2557,16 +2654,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
@@ -2576,8 +2673,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -3087,7 +3184,7 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3104,7 +3201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4 F7:F8 F10:F11 F13:F14 F16:F20">
-    <cfRule type="containsText" dxfId="53" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3121,7 +3218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="52" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3138,7 +3235,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="51" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3155,7 +3252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="50" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3172,7 +3269,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3189,7 +3286,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="48" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3206,7 +3303,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3223,7 +3320,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="46" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3240,7 +3337,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3285,16 +3382,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
@@ -3304,8 +3401,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -3815,7 +3912,7 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3832,7 +3929,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3 F7:F10 F14:F23">
-    <cfRule type="containsText" dxfId="43" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3849,7 +3946,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="42" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3866,7 +3963,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3883,7 +3980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="40" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3900,7 +3997,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3917,7 +4014,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3962,17 +4059,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
@@ -3982,8 +4079,8 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -4559,7 +4656,7 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4576,11 +4673,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G5 G8:G9 G19 G14:G17 G21:G23">
-    <cfRule type="containsText" dxfId="36" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G3 G8:G9 G19 G14:G17 G21:G23">
+  <conditionalFormatting sqref="G3 G5 G8:G9 G19 G14:G17 G21:G23">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4593,7 +4690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4610,7 +4707,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="34" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4627,7 +4724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4644,7 +4741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4661,7 +4758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4678,7 +4775,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4695,7 +4792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4712,7 +4809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4736,13 +4833,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:G2"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4757,17 +4854,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
@@ -4777,8 +4874,8 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -4817,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H23" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H3:H24" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="J3" s="5"/>
@@ -4886,7 +4983,9 @@
       <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="F6" s="13" t="s">
         <v>95</v>
       </c>
@@ -4900,7 +4999,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>133</v>
@@ -4911,21 +5010,23 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>147</v>
+      </c>
       <c r="F7" s="13" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H7" si="1">IF(OR(AND(G7&gt;1,G7&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>133</v>
@@ -4938,10 +5039,10 @@
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4950,7 +5051,7 @@
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>133</v>
@@ -4963,10 +5064,10 @@
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4975,7 +5076,7 @@
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>133</v>
@@ -4988,10 +5089,10 @@
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5000,7 +5101,7 @@
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>133</v>
@@ -5009,11 +5110,11 @@
         <v>138</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -5025,22 +5126,20 @@
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>139</v>
-      </c>
+      <c r="E12" s="12"/>
       <c r="F12" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -5052,10 +5151,10 @@
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>137</v>
@@ -5067,10 +5166,10 @@
         <v>139</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5079,7 +5178,7 @@
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>133</v>
@@ -5091,13 +5190,13 @@
         <v>12</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5106,7 +5205,7 @@
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>133</v>
@@ -5121,7 +5220,7 @@
         <v>140</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -5133,7 +5232,7 @@
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>133</v>
@@ -5148,7 +5247,7 @@
         <v>140</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -5160,7 +5259,7 @@
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>133</v>
@@ -5172,12 +5271,12 @@
         <v>12</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" s="3" t="str">
@@ -5187,10 +5286,10 @@
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>137</v>
@@ -5202,7 +5301,7 @@
         <v>141</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>0</v>
@@ -5214,7 +5313,7 @@
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>135</v>
@@ -5229,7 +5328,7 @@
         <v>141</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>0</v>
@@ -5241,7 +5340,7 @@
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>135</v>
@@ -5256,7 +5355,7 @@
         <v>141</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>0</v>
@@ -5268,7 +5367,7 @@
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>135</v>
@@ -5280,10 +5379,10 @@
         <v>12</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>0</v>
@@ -5295,7 +5394,7 @@
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>135</v>
@@ -5310,7 +5409,7 @@
         <v>142</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>0</v>
@@ -5322,7 +5421,7 @@
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>135</v>
@@ -5336,13 +5435,40 @@
       <c r="E23" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="str">
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5353,13 +5479,13 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G17:G22">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G22">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="G18:G23">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G23">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5370,12 +5496,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4 G23 G6:G16">
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G4 G24 G6 G8:G17">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G4 G6:G16">
+  <conditionalFormatting sqref="G4 G24 G6 G8:G17">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5387,12 +5530,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5404,13 +5547,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5450,17 +5593,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
@@ -5470,8 +5613,8 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -6047,7 +6190,7 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="G14">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6064,11 +6207,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G6 G15:G16 G3 G23 G18:G21 G11:G13">
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8 G6 G15:G16 G3 G23 G18:G21 G11:G13">
+  <conditionalFormatting sqref="G6 G8 G15:G16 G3 G23 G18:G21 G11:G13">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6081,7 +6224,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6098,7 +6241,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6115,7 +6258,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6132,7 +6275,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6149,7 +6292,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6166,7 +6309,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6183,7 +6326,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6228,17 +6371,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
@@ -6248,8 +6391,8 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -6826,7 +6969,7 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="G17:G23">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6843,7 +6986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G8 G15:G16 G12:G13 G3">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6860,7 +7003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6877,7 +7020,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6894,7 +7037,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6911,7 +7054,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6928,7 +7071,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6945,7 +7088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6969,13 +7112,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6983,35 +7126,36 @@
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="4" max="6" width="24.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="7" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -7021,15 +7165,18 @@
       <c r="E2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1999</v>
       </c>
@@ -7043,19 +7190,20 @@
         <v>11</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H23" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f t="shared" ref="I3:I24" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2000</v>
       </c>
@@ -7069,20 +7217,21 @@
         <v>11</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="I4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="14"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2001</v>
       </c>
@@ -7096,18 +7245,19 @@
         <v>11</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2002</v>
       </c>
@@ -7121,18 +7271,19 @@
         <v>11</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2003</v>
       </c>
@@ -7146,18 +7297,19 @@
         <v>11</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2004</v>
       </c>
@@ -7171,18 +7323,19 @@
         <v>11</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2005</v>
       </c>
@@ -7196,18 +7349,19 @@
         <v>11</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2006</v>
       </c>
@@ -7221,18 +7375,19 @@
         <v>11</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2007</v>
       </c>
@@ -7246,18 +7401,19 @@
         <v>12</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2008</v>
       </c>
@@ -7273,23 +7429,26 @@
       <c r="E12" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>137</v>
@@ -7300,20 +7459,23 @@
       <c r="E13" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>133</v>
@@ -7325,22 +7487,23 @@
         <v>12</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>133</v>
@@ -7354,20 +7517,21 @@
       <c r="E15" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="12"/>
+      <c r="G15" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>133</v>
@@ -7381,20 +7545,21 @@
       <c r="E16" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="12"/>
+      <c r="G16" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>133</v>
@@ -7406,25 +7571,26 @@
         <v>12</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>137</v>
@@ -7435,20 +7601,21 @@
       <c r="E18" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="12"/>
+      <c r="G18" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>135</v>
@@ -7462,20 +7629,21 @@
       <c r="E19" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="12"/>
+      <c r="G19" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>135</v>
@@ -7489,20 +7657,21 @@
       <c r="E20" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="12"/>
+      <c r="G20" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>135</v>
@@ -7514,22 +7683,23 @@
         <v>12</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>135</v>
@@ -7543,20 +7713,21 @@
       <c r="E22" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="12"/>
+      <c r="G22" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>135</v>
@@ -7570,29 +7741,126 @@
       <c r="E23" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12"/>
+      <c r="G23" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="str">
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G16:G22">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G22">
+  <conditionalFormatting sqref="H17:H23">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H23">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4 H6:H12 H24 H14:H16">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H12 H4 H24 H14:H16">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7604,57 +7872,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4 G6:G15 G23">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G15 G4 G23">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -7663,13 +7880,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7734,16 +7951,40 @@
         <v>27</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Collections/Евро/Belgium/#EURO#Belgium#Regular[1999-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Belgium/#EURO#Belgium#Regular[1999-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1106,6 +1106,15 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="65">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1602,15 +1611,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1642,9 +1642,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="64"/>
-    <tableColumn id="2" name="Link" dataDxfId="63" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="62"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2490,7 +2490,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F23:F24">
-    <cfRule type="containsText" dxfId="61" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2507,11 +2507,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3 F6 F8:F9 F11:F12 F20:F22 F14:F18">
-    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F6 F8:F9 F11:F12 F20:F22 F14:F18">
+  <conditionalFormatting sqref="F6 F3 F8:F9 F11:F12 F20:F22 F14:F18">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2524,7 +2524,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2541,7 +2541,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="58" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2558,7 +2558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2575,7 +2575,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2592,7 +2592,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2609,7 +2609,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3184,7 +3184,7 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3201,7 +3201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4 F7:F8 F10:F11 F13:F14 F16:F20">
-    <cfRule type="containsText" dxfId="52" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3218,7 +3218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3235,7 +3235,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="50" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3252,7 +3252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3269,7 +3269,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="48" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3286,7 +3286,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3303,7 +3303,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="46" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3320,7 +3320,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3337,7 +3337,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3912,7 +3912,7 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3929,7 +3929,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3 F7:F10 F14:F23">
-    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3946,7 +3946,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3963,7 +3963,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3980,7 +3980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3997,7 +3997,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4014,7 +4014,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4656,7 +4656,7 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4673,11 +4673,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G5 G8:G9 G19 G14:G17 G21:G23">
-    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G5 G8:G9 G19 G14:G17 G21:G23">
+  <conditionalFormatting sqref="G5 G3 G8:G9 G19 G14:G17 G21:G23">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4690,7 +4690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4707,7 +4707,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4724,7 +4724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4741,7 +4741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4758,7 +4758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4775,7 +4775,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4792,7 +4792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4809,7 +4809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5480,7 +5480,7 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="G18:G23">
-    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5497,11 +5497,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 G24 G6 G8:G17">
-    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4 G24 G6 G8:G17">
+  <conditionalFormatting sqref="G24 G4 G6 G8:G17">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5514,7 +5514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5531,7 +5531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5548,7 +5548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6190,7 +6190,7 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="G14">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6207,11 +6207,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G6 G15:G16 G3 G23 G18:G21 G11:G13">
-    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G8 G15:G16 G3 G23 G18:G21 G11:G13">
+  <conditionalFormatting sqref="G8 G6 G15:G16 G3 G23 G18:G21 G11:G13">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6224,7 +6224,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6241,7 +6241,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6258,7 +6258,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6275,7 +6275,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6292,7 +6292,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6309,7 +6309,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6326,7 +6326,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6969,7 +6969,7 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="G17:G23">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6986,7 +6986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G8 G15:G16 G12:G13 G3">
-    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7003,7 +7003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7020,7 +7020,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7037,7 +7037,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7054,7 +7054,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7071,7 +7071,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7088,7 +7088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7114,7 +7114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -7788,7 +7788,7 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:H23">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7805,7 +7805,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 H6:H12 H24 H14:H16">
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7822,7 +7822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7839,7 +7839,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7856,7 +7856,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7882,11 +7882,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7979,8 +7979,8 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
